--- a/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAD31C6-61B9-49B5-BA13-3E1DE5EBEE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{449B7007-CD52-434D-AE30-0624CC3C0AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E39A316-C782-4207-A4AA-99B63DC43F46}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69520F95-F58A-4AD8-A883-13A60B294CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>37,43%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -200,28 +200,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>45,75%</t>
+    <t>47,75%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>43,17%</t>
+    <t>43,5%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>54,25%</t>
+    <t>52,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -230,70 +230,70 @@
     <t>88,5%</t>
   </si>
   <si>
-    <t>56,83%</t>
+    <t>56,5%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,205 +305,205 @@
     <t>23,92%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,52%</t>
+    <t>6,66%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,48%</t>
+    <t>93,34%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>35,63%</t>
+    <t>35,81%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>64,37%</t>
+    <t>64,19%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
@@ -512,406 +512,400 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>10,47%</t>
+    <t>8,67%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>89,53%</t>
+    <t>91,33%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>27,96%</t>
+    <t>27,08%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>31,28%</t>
+    <t>29,55%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>14,78%</t>
+    <t>15,7%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>68,72%</t>
+    <t>70,45%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>85,22%</t>
+    <t>84,3%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF4110-337B-40E0-AB50-BE8216089E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6CAC59-75CD-4361-ADAE-9E22F400BF58}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79634B80-B3B7-46AB-B530-B912D1EB5358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB45B7-12F7-4472-B74F-762B1916ADA1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2825,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6451670F-8C4E-4E0D-A93D-C4A6CE907901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BD99E6-9B51-4671-BF52-A8735B34CC89}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3417,10 +3411,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3429,13 +3423,13 @@
         <v>14118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3444,13 +3438,13 @@
         <v>42762</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3459,13 @@
         <v>167171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>158</v>
@@ -3480,13 +3474,13 @@
         <v>177335</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -3495,13 +3489,13 @@
         <v>344506</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C861E3-79D4-4753-B352-7D655ACEA6FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE931F-F651-4307-BDBB-9CBB1520A9D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3694,13 @@
         <v>5046</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3715,13 +3709,13 @@
         <v>2738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3730,13 +3724,13 @@
         <v>7784</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3745,13 @@
         <v>31205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3766,13 +3760,13 @@
         <v>83652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3781,13 +3775,13 @@
         <v>114856</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3849,13 @@
         <v>38779</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3870,13 +3864,13 @@
         <v>13059</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3885,13 +3879,13 @@
         <v>51838</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3900,13 @@
         <v>93226</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -3921,13 +3915,13 @@
         <v>97805</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -3936,13 +3930,13 @@
         <v>191031</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4004,13 @@
         <v>3178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4025,13 +4019,13 @@
         <v>1495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4040,13 +4034,13 @@
         <v>4672</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,10 +4055,10 @@
         <v>30976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -4076,10 +4070,10 @@
         <v>32121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -4091,13 +4085,13 @@
         <v>63098</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4159,13 @@
         <v>47003</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4180,13 +4174,13 @@
         <v>17291</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4195,13 +4189,13 @@
         <v>64294</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4210,13 @@
         <v>155407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -4231,13 +4225,13 @@
         <v>213578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
@@ -4246,13 +4240,13 @@
         <v>368985</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449B7007-CD52-434D-AE30-0624CC3C0AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E44070-A63A-4C20-8F98-E576CB905A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69520F95-F58A-4AD8-A883-13A60B294CC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D24ED7-BB7A-4ADF-96A3-491141ABED85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>37,43%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -200,28 +200,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>47,75%</t>
+    <t>43,59%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>43,5%</t>
+    <t>43,97%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>52,25%</t>
+    <t>56,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -230,70 +230,70 @@
     <t>88,5%</t>
   </si>
   <si>
-    <t>56,5%</t>
+    <t>56,03%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,436 +305,448 @@
     <t>23,92%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,66%</t>
+    <t>6,28%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,34%</t>
+    <t>93,72%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>72,17%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
   </si>
   <si>
     <t>94,9%</t>
@@ -1317,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6CAC59-75CD-4361-ADAE-9E22F400BF58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395EB8EA-E86B-46FA-9442-008480ECB14D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2068,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB45B7-12F7-4472-B74F-762B1916ADA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B2423E-8199-4F52-8F61-E1FCC8E0CE00}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2819,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BD99E6-9B51-4671-BF52-A8735B34CC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2BB7AF-7837-4E0A-8514-408F2DB23382}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,10 +3423,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3423,13 +3435,13 @@
         <v>14118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -3438,13 +3450,13 @@
         <v>42762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3471,13 @@
         <v>167171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>158</v>
@@ -3474,13 +3486,13 @@
         <v>177335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -3489,13 +3501,13 @@
         <v>344506</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE931F-F651-4307-BDBB-9CBB1520A9D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013AA7A4-62ED-4196-8CE5-B45AD66D51BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3706,13 @@
         <v>5046</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3709,13 +3721,13 @@
         <v>2738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3724,13 +3736,13 @@
         <v>7784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3757,13 @@
         <v>31205</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3760,13 +3772,13 @@
         <v>83652</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3775,13 +3787,13 @@
         <v>114856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3861,13 @@
         <v>38779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3864,13 +3876,13 @@
         <v>13059</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3879,13 +3891,13 @@
         <v>51838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3912,13 @@
         <v>93226</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -3915,13 +3927,13 @@
         <v>97805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -3930,13 +3942,13 @@
         <v>191031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4016,13 @@
         <v>3178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4019,13 +4031,13 @@
         <v>1495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4034,13 +4046,13 @@
         <v>4672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,10 +4067,10 @@
         <v>30976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -4070,10 +4082,10 @@
         <v>32121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -4085,13 +4097,13 @@
         <v>63098</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4171,13 @@
         <v>47003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4174,13 +4186,13 @@
         <v>17291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4189,13 +4201,13 @@
         <v>64294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4222,13 @@
         <v>155407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -4225,13 +4237,13 @@
         <v>213578</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
@@ -4240,13 +4252,13 @@
         <v>368985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E44070-A63A-4C20-8F98-E576CB905A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C6DEF1-4F6C-48C4-ADB5-2927517B07EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D24ED7-BB7A-4ADF-96A3-491141ABED85}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1525029F-43DD-4E58-AFBA-E317E8DE1DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>37,43%</t>
   </si>
   <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -200,28 +200,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>43,59%</t>
+    <t>45,75%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>43,97%</t>
+    <t>43,17%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>56,41%</t>
+    <t>54,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -230,70 +230,70 @@
     <t>88,5%</t>
   </si>
   <si>
-    <t>56,03%</t>
+    <t>56,83%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,205 +305,205 @@
     <t>23,92%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,72%</t>
+    <t>93,48%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>35,56%</t>
+    <t>35,63%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>64,44%</t>
+    <t>64,37%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
@@ -512,205 +512,205 @@
     <t>10,81%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>8,74%</t>
+    <t>10,47%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>91,26%</t>
+    <t>89,53%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>27,34%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>72,66%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -719,205 +719,199 @@
     <t>13,92%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>29,55%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>15,7%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>70,45%</t>
+    <t>68,72%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>84,3%</t>
+    <t>85,22%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395EB8EA-E86B-46FA-9442-008480ECB14D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C93F0-EEEC-4486-8368-D687D0F7A2BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B2423E-8199-4F52-8F61-E1FCC8E0CE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1B1F32-70D6-41AA-A699-AF4D75173513}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2BB7AF-7837-4E0A-8514-408F2DB23382}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8B91D2-8448-4B27-8C04-B41B311EEEC9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013AA7A4-62ED-4196-8CE5-B45AD66D51BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF1808-C9C8-4419-9A76-58928F650265}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,13 +3715,13 @@
         <v>2738</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3736,13 +3730,13 @@
         <v>7784</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3751,13 @@
         <v>31205</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3772,13 +3766,13 @@
         <v>83652</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3787,13 +3781,13 @@
         <v>114856</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3855,13 @@
         <v>38779</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3876,13 +3870,13 @@
         <v>13059</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3891,13 +3885,13 @@
         <v>51838</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3906,13 @@
         <v>93226</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -3927,13 +3921,13 @@
         <v>97805</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -3942,13 +3936,13 @@
         <v>191031</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4010,13 @@
         <v>3178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4031,13 +4025,13 @@
         <v>1495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4046,13 +4040,13 @@
         <v>4672</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,10 +4061,10 @@
         <v>30976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -4082,10 +4076,10 @@
         <v>32121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -4097,13 +4091,13 @@
         <v>63098</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4165,13 @@
         <v>47003</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4186,13 +4180,13 @@
         <v>17291</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4201,13 +4195,13 @@
         <v>64294</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4216,13 @@
         <v>155407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
@@ -4237,13 +4231,13 @@
         <v>213578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
@@ -4252,13 +4246,13 @@
         <v>368985</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C6DEF1-4F6C-48C4-ADB5-2927517B07EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B694853-6A78-4A67-BCCE-95657C494354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1525029F-43DD-4E58-AFBA-E317E8DE1DE4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7D534ADD-7E79-453B-8144-46B53824B3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -716,202 +716,196 @@
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>88,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C93F0-EEEC-4486-8368-D687D0F7A2BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8098F852-D36A-416C-8569-DFFAE6D16CC4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1B1F32-70D6-41AA-A699-AF4D75173513}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D59959B-DD52-4397-929C-D586147C5F1E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2825,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8B91D2-8448-4B27-8C04-B41B311EEEC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FEED93-B12F-44FB-AE2A-F4879D760E32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF1808-C9C8-4419-9A76-58928F650265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935023C0-62D9-4353-8AAD-D8D113B9CBD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3697,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5046</v>
+        <v>5009</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3712,31 +3706,31 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2738</v>
+        <v>2682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>7784</v>
+        <v>7691</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,46 +3742,46 @@
         <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>31205</v>
+        <v>30597</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
       </c>
       <c r="I5" s="7">
-        <v>83652</v>
+        <v>76872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
       </c>
       <c r="N5" s="7">
-        <v>114856</v>
+        <v>107469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3793,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>36251</v>
+        <v>35606</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3814,7 +3808,7 @@
         <v>157</v>
       </c>
       <c r="I6" s="7">
-        <v>86390</v>
+        <v>79554</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3823,7 @@
         <v>210</v>
       </c>
       <c r="N6" s="7">
-        <v>122640</v>
+        <v>115160</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3852,46 +3846,46 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>38779</v>
+        <v>37466</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>13059</v>
+        <v>11766</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>51838</v>
+        <v>49232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,46 +3897,46 @@
         <v>91</v>
       </c>
       <c r="D8" s="7">
-        <v>93226</v>
+        <v>91647</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>97805</v>
+        <v>90191</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
       </c>
       <c r="N8" s="7">
-        <v>191031</v>
+        <v>181838</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3948,7 @@
         <v>124</v>
       </c>
       <c r="D9" s="7">
-        <v>132005</v>
+        <v>129113</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3969,7 +3963,7 @@
         <v>147</v>
       </c>
       <c r="I9" s="7">
-        <v>110864</v>
+        <v>101957</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +3978,7 @@
         <v>271</v>
       </c>
       <c r="N9" s="7">
-        <v>242869</v>
+        <v>231070</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4007,46 +4001,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3178</v>
+        <v>2828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1495</v>
+        <v>1323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>4672</v>
+        <v>4151</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4052,13 @@
         <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>30976</v>
+        <v>30398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>61</v>
@@ -4073,13 +4067,13 @@
         <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>32121</v>
+        <v>29543</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>61</v>
@@ -4088,16 +4082,16 @@
         <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>63098</v>
+        <v>59941</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4103,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>34154</v>
+        <v>33226</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4124,7 +4118,7 @@
         <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>33616</v>
+        <v>30866</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4133,7 @@
         <v>86</v>
       </c>
       <c r="N12" s="7">
-        <v>67770</v>
+        <v>64092</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4162,46 +4156,46 @@
         <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>47003</v>
+        <v>45303</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>17291</v>
+        <v>15772</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>64294</v>
+        <v>61075</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,46 +4207,46 @@
         <v>170</v>
       </c>
       <c r="D14" s="7">
-        <v>155407</v>
+        <v>152642</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>335</v>
       </c>
       <c r="I14" s="7">
-        <v>213578</v>
+        <v>196605</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>368985</v>
+        <v>349248</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4258,7 @@
         <v>210</v>
       </c>
       <c r="D15" s="7">
-        <v>202410</v>
+        <v>197945</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4273,7 @@
         <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>230869</v>
+        <v>212377</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4288,7 @@
         <v>567</v>
       </c>
       <c r="N15" s="7">
-        <v>433279</v>
+        <v>410323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
